--- a/admin/releases.xlsx
+++ b/admin/releases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Release</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Merged java and .NET content model</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>No changes to java, change to content model is minimal</t>
   </si>
 </sst>
 </file>
@@ -92,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -125,7 +131,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -551,6 +557,26 @@
       </c>
       <c r="F6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41010</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/admin/releases.xlsx
+++ b/admin/releases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Release</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>No changes to java, change to content model is minimal</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Disabled autoincrement on assembly versions, using shared AssemblyInfo.cs</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,6 +586,26 @@
       </c>
       <c r="F7" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41033</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/admin/releases.xlsx
+++ b/admin/releases.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="24240" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Release</t>
   </si>
@@ -72,18 +72,6 @@
     <t>1.22</t>
   </si>
   <si>
-    <t>Test status</t>
-  </si>
-  <si>
-    <t>OK (.NET only)</t>
-  </si>
-  <si>
-    <t>OK (java only)</t>
-  </si>
-  <si>
-    <t>OK (.NET and java)</t>
-  </si>
-  <si>
     <t>Merged java and .NET content model</t>
   </si>
   <si>
@@ -100,16 +88,34 @@
   </si>
   <si>
     <t>Disabled autoincrement on assembly versions, using shared AssemblyInfo.cs</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>Test .NET</t>
+  </si>
+  <si>
+    <t>Test Java</t>
+  </si>
+  <si>
+    <t>Test Templates</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Tridion UI 2012, keyword fields, performance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +153,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -225,6 +236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -259,6 +271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,21 +447,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="5" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,13 +475,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -482,13 +501,19 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -502,13 +527,19 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -522,13 +553,19 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -542,13 +579,19 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -562,15 +605,21 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>41010</v>
@@ -582,15 +631,21 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>41033</v>
@@ -602,10 +657,42 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -615,24 +702,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/admin/releases.xlsx
+++ b/admin/releases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>Release</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>Tridion UI 2012, keyword fields, performance</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>Added Web assembly</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>To be done</t>
+  </si>
+  <si>
+    <t>Added target groups, removed LocalDB provider, fixed versions, added 'publish empty fields', default Tridion version is now 2013</t>
   </si>
 </sst>
 </file>
@@ -448,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +711,78 @@
       </c>
       <c r="H9" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41304</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>41409</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1">
+        <v>41583</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
